--- a/Assignments/TaskSignupSheet.xlsx
+++ b/Assignments/TaskSignupSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t>PHASE 1</t>
   </si>
@@ -234,12 +234,6 @@
     <t>Decide what takes place on host versus what is done by GPU</t>
   </si>
   <si>
-    <t>Implement a codebook quantization</t>
-  </si>
-  <si>
-    <t>Implement  codebook based dequanization</t>
-  </si>
-  <si>
     <t>Make type of quantization selectable in interfaces</t>
   </si>
   <si>
@@ -331,6 +325,18 @@
   </si>
   <si>
     <t>Update read compressed file</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Partial implementation</t>
+  </si>
+  <si>
+    <t>Implement a codebook quantization (lloyd's)</t>
+  </si>
+  <si>
+    <t>Implement  codebook based dequanization (lloyd's)</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1137,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1186,7 +1192,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1196,12 +1202,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1224,7 +1230,7 @@
   <dimension ref="A2:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1287,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1484,9 +1490,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="30">
+    <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -1496,11 +1502,17 @@
       </c>
     </row>
     <row r="36" spans="3:5">
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
       <c r="E36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="3:5">
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
       <c r="E37" t="s">
         <v>23</v>
       </c>
@@ -1540,37 +1552,37 @@
     </row>
     <row r="44" spans="3:5">
       <c r="E44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="3:5">
       <c r="E45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="E46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="E47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="3:5">
       <c r="E48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1584,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1654,7 +1666,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -1710,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1803,7 +1815,7 @@
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1876,7 +1888,7 @@
     <row r="35" spans="3:5">
       <c r="C35" s="1"/>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -1928,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1941,7 +1953,7 @@
     <row r="1" spans="3:3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="3:3" ht="37.5">
+    <row r="2" spans="3:3" ht="18.75">
       <c r="C2" s="6" t="s">
         <v>69</v>
       </c>
@@ -1996,7 +2008,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="B19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -2028,7 +2040,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2143,7 +2155,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2215,62 +2227,68 @@
     </row>
     <row r="34" spans="3:12">
       <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="3:12">
       <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="1"/>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" s="1"/>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="1"/>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39" s="1"/>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="3:12">
       <c r="C40" s="1"/>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="3:12">
       <c r="C41" s="1"/>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="3:12">
       <c r="C42" s="1"/>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="3:12">
       <c r="C43" s="1"/>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="3:12">
@@ -2295,7 +2313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J39" sqref="I38:J39"/>
     </sheetView>
   </sheetViews>
@@ -2309,7 +2327,7 @@
     </row>
     <row r="2" spans="3:3" ht="18.75">
       <c r="C2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -2356,7 +2374,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -2384,7 +2402,7 @@
     <row r="20" spans="1:14">
       <c r="A20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2406,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2444,7 +2462,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2460,7 +2478,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>60</v>
@@ -2479,11 +2497,11 @@
     <row r="25" spans="1:14">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2615,10 +2633,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2647,6 +2668,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
       <c r="C5" t="s">
         <v>55</v>
       </c>

--- a/Assignments/TaskSignupSheet.xlsx
+++ b/Assignments/TaskSignupSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="9780" activeTab="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
   <si>
     <t>PHASE 1</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Integration test policies</t>
   </si>
   <si>
-    <t>Unit Tests oilicies</t>
-  </si>
-  <si>
     <t>Write unit tests</t>
   </si>
   <si>
@@ -337,13 +334,22 @@
   </si>
   <si>
     <t>Implement  codebook based dequanization (lloyd's)</t>
+  </si>
+  <si>
+    <t>Entropy encoding</t>
+  </si>
+  <si>
+    <t>Entropy decoding</t>
+  </si>
+  <si>
+    <t>Unit Tests policies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +426,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -902,6 +913,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -936,6 +948,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1111,111 +1124,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>48</v>
       </c>
@@ -1226,14 +1239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -1242,12 +1255,12 @@
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" ht="18.75">
+    <row r="2" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="30">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>2</v>
@@ -1267,7 +1280,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20"/>
       <c r="D20" s="4" t="s">
@@ -1284,7 +1297,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -1306,7 +1319,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>5</v>
@@ -1326,7 +1339,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>28</v>
@@ -1346,7 +1359,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>6</v>
@@ -1366,7 +1379,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -1384,7 +1397,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -1402,7 +1415,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -1418,7 +1431,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="29" spans="1:14" s="3" customFormat="1">
+    <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -1435,7 +1448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1457,7 +1470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1468,7 +1481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="30">
+    <row r="33" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1479,7 +1492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="30">
+    <row r="34" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1490,9 +1503,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -1501,88 +1514,110 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
       <c r="E38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
-      <c r="E41" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
-      <c r="E42" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
-      <c r="E43" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
-      <c r="E44" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
-      <c r="E45" t="s">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
-      <c r="E46" t="s">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
-      <c r="E47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="E48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" t="s">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1593,93 +1628,93 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="3:3" ht="18.75">
+    <row r="2" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>2</v>
@@ -1697,7 +1732,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="D23" s="4" t="s">
         <v>56</v>
@@ -1713,7 +1748,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -1735,7 +1770,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>5</v>
@@ -1754,7 +1789,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>63</v>
@@ -1773,7 +1808,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>6</v>
@@ -1792,7 +1827,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -1810,7 +1845,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -1828,7 +1863,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -1844,10 +1879,10 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -1873,61 +1908,61 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="E33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="E34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="E35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
     </row>
   </sheetData>
@@ -1937,88 +1972,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="3:3" ht="18.75">
+    <row r="2" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1">
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -2036,11 +2071,11 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2052,7 +2087,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -2074,7 +2109,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -2093,7 +2128,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -2112,7 +2147,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -2131,7 +2166,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2149,7 +2184,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2167,7 +2202,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -2183,10 +2218,10 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -2212,7 +2247,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="E33" s="7" t="s">
         <v>70</v>
@@ -2225,82 +2260,82 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" t="s">
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" t="s">
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="E36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="E37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="E38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="E39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="E40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="E41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="E42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="E43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
     </row>
   </sheetData>
@@ -2310,78 +2345,78 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J39" sqref="I38:J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="3:3" ht="18.75">
+    <row r="2" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>2</v>
@@ -2399,10 +2434,10 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2415,7 +2450,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -2437,7 +2472,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>5</v>
@@ -2456,7 +2491,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>63</v>
@@ -2475,7 +2510,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>76</v>
@@ -2494,7 +2529,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>75</v>
@@ -2514,7 +2549,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -2529,7 +2564,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -2545,10 +2580,10 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -2574,52 +2609,52 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
     </row>
   </sheetData>
@@ -2629,19 +2664,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2652,30 +2687,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
